--- a/xls2xml/tests_box/input_box_last_version.xlsx
+++ b/xls2xml/tests_box/input_box_last_version.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="538">
   <si>
     <t xml:space="preserve">uuid_box</t>
   </si>
@@ -1556,6 +1556,15 @@
   </si>
   <si>
     <t xml:space="preserve">por:Faroeste|eng:Western</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63f6fc27-d1e6-41b4-bc55-a045ed95609f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Inverleigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studio</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -2059,10 +2068,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="R6" activeCellId="1" sqref="B:B R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12301,10 +12310,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12866,6 +12875,32 @@
         <v>467</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="D22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -12882,43 +12917,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="40.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="41.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="226.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="39.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="41.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="16" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="16" width="41.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="226.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="39.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="41.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="16" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>457</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="G1" s="20"/>
+        <v>512</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>513</v>
+      </c>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -12927,125 +12964,141 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="E2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="F3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>521</v>
+        <v>523</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>515</v>
+        <v>525</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>515</v>
+        <v>529</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="F6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="B7" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>515</v>
+      <c r="D7" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/xls2xml/tests_box/input_box_last_version.xlsx
+++ b/xls2xml/tests_box/input_box_last_version.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="499">
   <si>
     <t xml:space="preserve">uuid_box</t>
   </si>
@@ -178,6 +178,9 @@
     <t xml:space="preserve">não</t>
   </si>
   <si>
+    <t xml:space="preserve">Inverleigh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esportes</t>
   </si>
   <si>
@@ -283,9 +286,6 @@
     <t xml:space="preserve">eng</t>
   </si>
   <si>
-    <t xml:space="preserve">Inverleigh</t>
-  </si>
-  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
@@ -1435,217 +1435,100 @@
     <t xml:space="preserve">offline</t>
   </si>
   <si>
-    <t xml:space="preserve">03bda820-beaf-4573-b8a9-6250a586feb5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Fantasia|eng:Fantasy</t>
+    <t xml:space="preserve">63f6fc27-d1e6-41b4-bc55-a045ed95609f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Inverleigh</t>
   </si>
   <si>
     <t xml:space="preserve">false</t>
   </si>
   <si>
-    <t xml:space="preserve">3a65ffe4-61cf-4db7-af67-a3461e270bbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Aventura|eng:Adventure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d7d4b94e-6055-4400-8325-c7f754830573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Show|eng:Show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f7c576a-7212-4af7-ac90-cbd6df1e5f94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Música|eng:Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05ab388f-ecda-44f0-859e-34ba84fb8680</t>
+    <t xml:space="preserve">studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44e93709-59b0-40ec-b512-6480aef6ef61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:A Lista|eng:The List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:A melhor série de contagem regressiva de esportes. Com temas icônicos focados nos momentos e indivíduos mais memoráveis do esporte.|eng:English Synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b93a554-b442-421d-874b-e84c26f8d060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Primeira temporada|eng:First season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6fe302ae-4671-4ec4-a780-7a01edc74e48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Ícones do Esporte|eng:National Icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Acompanhe uma batalha comparando os maiores nomes do esporte na atualidade contra as maiores lendas da modalidade de cada país. |eng:English Synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d620839c-245f-49b0-a42a-0687232b1555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506fa204-b5fc-4c65-90a9-711a614ad214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Time dos Sonhos|eng:Dream Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:A série monta o time dos sonhos. Cada equipe é formada com os atletas lendários que fizeram história no seu clube, seleção e equipe nas diversas modalidades esportivas|eng:English Synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7e5b23a-4787-4023-9d0d-e79e52c3342d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9d89fb96-4f4c-4997-abe5-b64ccaf54a4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Estrelas do Tênis|eng:Tennis Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Conheça a elite do tenis dentro e fora das quadras. Seu estilo de vida glamuroso, personalidades marcantes e as manias curiosas dos nomes desse esporte que amamos.|eng:English Synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8747a1e0-5f6e-4292-ae66-52963a6d93ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01f45ad5-b43a-4262-aaa2-3bbf0493578f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Perto Deles|eng:Up Close With</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Os maiores atletas de diversificados esportes falam sobre assuntos que não são muito falados. O que os motiva e quais foram os desafios que precisaram superar na busca de seus sonhos.|eng:English Synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6cad1d09-78cf-4c71-9341-8b242fea2202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e7adee89-7154-424b-a748-d81158dbc11e</t>
   </si>
   <si>
     <t xml:space="preserve">por:Documentário|eng:Documentary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131056f2-511d-440b-a9d9-e6bb7a9eed73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Esportes|eng:Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">739ea2b6-f0b8-41e2-8087-ab112a10040d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Infantil|eng:Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33bc86f1-94dd-4d4b-9997-d548ee0ada47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Animação|eng:Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a116c8c-b18f-457b-b68a-181d5cdc7edb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Drama|eng:Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2423b2df-57ac-4c53-b7e7-1096c464b63e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Família|eng:Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9907a00-955e-4cb9-b0db-5bc330705f49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Romance|eng:Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807f0371-cf9e-4ec1-ba69-b962ad9cf820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Ação|eng:Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2b8a1f6d-80d7-4c2d-b822-af3a433f249b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Suspense|eng:Triller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7f5ffd26-bfe3-46fe-84b4-feff1540818e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Terror|eng:Horror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de82bb83-4353-4ac2-917c-aa064ee30552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Comédia|eng:Comedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c5a1745c-3a09-4548-b2f0-df69c8816e92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Guerra|eng:War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ef6dc7c-7f59-4281-a1be-86f74c954e75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Ficção Científica|eng:Science Fiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9adee381-0435-40ab-bfce-574c93cf6d96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Crime|eng:Crime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aed0d03b-b2a0-49d5-b594-89a6397e6fa5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Mistério|eng:Mistery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07edbc5c-5b5c-4f13-8cf0-da6408f40844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Faroeste|eng:Western</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63f6fc27-d1e6-41b4-bc55-a045ed95609f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Inverleigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44e93709-59b0-40ec-b512-6480aef6ef61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:A Lista|eng:The List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:A melhor série de contagem regressiva de esportes. Com temas icônicos focados nos momentos e indivíduos mais memoráveis do esporte.|eng:English Synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1b93a554-b442-421d-874b-e84c26f8d060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Primeira temporada|eng:First season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6fe302ae-4671-4ec4-a780-7a01edc74e48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Ícones do Esporte|eng:National Icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Acompanhe uma batalha comparando os maiores nomes do esporte na atualidade contra as maiores lendas da modalidade de cada país. |eng:English Synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d620839c-245f-49b0-a42a-0687232b1555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">506fa204-b5fc-4c65-90a9-711a614ad214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Time dos Sonhos|eng:Dream Teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:A série monta o time dos sonhos. Cada equipe é formada com os atletas lendários que fizeram história no seu clube, seleção e equipe nas diversas modalidades esportivas|eng:English Synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7e5b23a-4787-4023-9d0d-e79e52c3342d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9d89fb96-4f4c-4997-abe5-b64ccaf54a4b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Estrelas do Tênis|eng:Tennis Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Conheça a elite do tenis dentro e fora das quadras. Seu estilo de vida glamuroso, personalidades marcantes e as manias curiosas dos nomes desse esporte que amamos.|eng:English Synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8747a1e0-5f6e-4292-ae66-52963a6d93ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01f45ad5-b43a-4262-aaa2-3bbf0493578f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Perto Deles|eng:Up Close With</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por:Os maiores atletas de diversificados esportes falam sobre assuntos que não são muito falados. O que os motiva e quais foram os desafios que precisaram superar na busca de seus sonhos.|eng:English Synopsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6cad1d09-78cf-4c71-9341-8b242fea2202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e7adee89-7154-424b-a748-d81158dbc11e</t>
   </si>
   <si>
     <t xml:space="preserve">por:Documentário esportivo com Rivellino, José Silvério, Fofão, Cesar Cielo, Hugo Hoyama, Vanderlei Cordeiro, Pepe  |eng: Sport Documentary with Rivellino, José Silvério, Fofão, Cesar Cielo, Hugo Hoyama, Vanderlei Cordeiro, Pepe</t>
@@ -1879,7 +1762,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1954,10 +1837,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2071,7 +1950,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="R6" activeCellId="1" sqref="B:B R6"/>
+      <selection pane="bottomLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2499,6 +2378,9 @@
       <c r="O2" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
@@ -2506,16 +2388,16 @@
         <v>40</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="11" t="n">
         <v>0.0365277777777778</v>
@@ -2527,7 +2409,7 @@
         <v>54788</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AG2" s="2"/>
@@ -2536,7 +2418,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
@@ -2545,7 +2427,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -2554,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -2577,6 +2459,9 @@
       <c r="O3" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
@@ -2584,16 +2469,16 @@
         <v>40</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="11" t="n">
         <v>0.0365740740740741</v>
@@ -2605,7 +2490,7 @@
         <v>54788</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AG3" s="2"/>
@@ -2614,7 +2499,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
@@ -2623,7 +2508,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1</v>
@@ -2632,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -2655,6 +2540,9 @@
       <c r="O4" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
@@ -2662,16 +2550,16 @@
         <v>40</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="11" t="n">
         <v>0.0355208333333333</v>
@@ -2683,7 +2571,7 @@
         <v>54788</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AG4" s="2"/>
@@ -2692,7 +2580,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>39</v>
@@ -2701,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
@@ -2710,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -2733,6 +2621,9 @@
       <c r="O5" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
@@ -2740,16 +2631,16 @@
         <v>40</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y5" s="11" t="n">
         <v>0.0376157407407407</v>
@@ -2761,7 +2652,7 @@
         <v>54788</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="11"/>
       <c r="AG5" s="2"/>
@@ -2770,7 +2661,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -2779,7 +2670,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -2788,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2811,6 +2702,9 @@
       <c r="O6" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
@@ -2818,16 +2712,16 @@
         <v>40</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="11" t="n">
         <v>0.0363773148148148</v>
@@ -2839,7 +2733,7 @@
         <v>54788</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AG6" s="2"/>
@@ -2848,7 +2742,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>39</v>
@@ -2857,7 +2751,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -2866,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -2889,6 +2783,9 @@
       <c r="O7" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
@@ -2896,16 +2793,16 @@
         <v>40</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y7" s="11" t="n">
         <v>0.0369907407407407</v>
@@ -2917,7 +2814,7 @@
         <v>54788</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC7" s="11"/>
       <c r="AG7" s="2"/>
@@ -2926,7 +2823,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -2935,7 +2832,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -2944,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
@@ -2967,6 +2864,9 @@
       <c r="O8" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="P8" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
@@ -2974,16 +2874,16 @@
         <v>40</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="11" t="n">
         <v>0.0323842592592593</v>
@@ -2995,7 +2895,7 @@
         <v>54788</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="11"/>
       <c r="AG8" s="2"/>
@@ -3004,16 +2904,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
@@ -3022,16 +2922,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>44</v>
@@ -3046,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="2" t="n">
         <v>0</v>
@@ -3055,7 +2955,7 @@
         <v>40</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>82</v>
@@ -3076,7 +2976,7 @@
         <v>54788</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AG9" s="2"/>
@@ -3088,10 +2988,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>86</v>
@@ -3106,13 +3006,13 @@
         <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
@@ -3127,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
@@ -3136,7 +3036,7 @@
         <v>40</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>82</v>
@@ -3157,7 +3057,7 @@
         <v>54788</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AG10" s="2"/>
@@ -3169,10 +3069,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>90</v>
@@ -3187,13 +3087,13 @@
         <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>44</v>
@@ -3208,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
@@ -3217,7 +3117,7 @@
         <v>40</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>82</v>
@@ -3238,7 +3138,7 @@
         <v>54788</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="13"/>
       <c r="AG11" s="2"/>
@@ -3250,10 +3150,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>94</v>
@@ -3268,13 +3168,13 @@
         <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>44</v>
@@ -3289,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="2" t="n">
         <v>0</v>
@@ -3298,7 +3198,7 @@
         <v>40</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>82</v>
@@ -3319,7 +3219,7 @@
         <v>54788</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC12" s="13"/>
       <c r="AG12" s="2"/>
@@ -3331,10 +3231,10 @@
         <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>98</v>
@@ -3349,13 +3249,13 @@
         <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>44</v>
@@ -3370,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>0</v>
@@ -3379,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>82</v>
@@ -3400,7 +3300,7 @@
         <v>54788</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC13" s="13"/>
       <c r="AG13" s="2"/>
@@ -3412,10 +3312,10 @@
         <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>102</v>
@@ -3430,13 +3330,13 @@
         <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>44</v>
@@ -3451,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
@@ -3460,7 +3360,7 @@
         <v>40</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>82</v>
@@ -3481,7 +3381,7 @@
         <v>54788</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC14" s="13"/>
       <c r="AG14" s="2"/>
@@ -3493,10 +3393,10 @@
         <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>106</v>
@@ -3511,13 +3411,13 @@
         <v>107</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>44</v>
@@ -3532,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>0</v>
@@ -3541,7 +3441,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>82</v>
@@ -3562,7 +3462,7 @@
         <v>54788</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC15" s="13"/>
       <c r="AG15" s="2"/>
@@ -3574,10 +3474,10 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>110</v>
@@ -3592,13 +3492,13 @@
         <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>44</v>
@@ -3613,7 +3513,7 @@
         <v>9</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>0</v>
@@ -3622,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>82</v>
@@ -3643,7 +3543,7 @@
         <v>54788</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="13"/>
       <c r="AG16" s="2"/>
@@ -3655,10 +3555,10 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>114</v>
@@ -3673,13 +3573,13 @@
         <v>115</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>44</v>
@@ -3694,7 +3594,7 @@
         <v>9</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
@@ -3703,7 +3603,7 @@
         <v>40</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>82</v>
@@ -3724,7 +3624,7 @@
         <v>54788</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="13"/>
       <c r="AG17" s="2"/>
@@ -3736,10 +3636,10 @@
         <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>118</v>
@@ -3754,13 +3654,13 @@
         <v>119</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>44</v>
@@ -3775,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>0</v>
@@ -3784,7 +3684,7 @@
         <v>40</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>82</v>
@@ -3805,7 +3705,7 @@
         <v>54788</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC18" s="13"/>
       <c r="AG18" s="2"/>
@@ -3817,10 +3717,10 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>122</v>
@@ -3835,13 +3735,13 @@
         <v>123</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>44</v>
@@ -3856,7 +3756,7 @@
         <v>9</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0</v>
@@ -3865,7 +3765,7 @@
         <v>40</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>82</v>
@@ -3886,7 +3786,7 @@
         <v>54788</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC19" s="13"/>
       <c r="AG19" s="2"/>
@@ -3898,10 +3798,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
@@ -3916,13 +3816,13 @@
         <v>127</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>44</v>
@@ -3937,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>0</v>
@@ -3946,7 +3846,7 @@
         <v>40</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>82</v>
@@ -3967,7 +3867,7 @@
         <v>54788</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC20" s="13"/>
       <c r="AG20" s="2"/>
@@ -3979,10 +3879,10 @@
         <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>130</v>
@@ -3997,13 +3897,13 @@
         <v>131</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>44</v>
@@ -4018,7 +3918,7 @@
         <v>9</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
@@ -4027,7 +3927,7 @@
         <v>40</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>82</v>
@@ -4048,7 +3948,7 @@
         <v>54788</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC21" s="13"/>
       <c r="AG21" s="2"/>
@@ -4060,10 +3960,10 @@
         <v>133</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>134</v>
@@ -4078,13 +3978,13 @@
         <v>135</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>44</v>
@@ -4099,7 +3999,7 @@
         <v>9</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>0</v>
@@ -4108,7 +4008,7 @@
         <v>40</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>82</v>
@@ -4129,7 +4029,7 @@
         <v>54788</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AG22" s="2"/>
@@ -4141,10 +4041,10 @@
         <v>137</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>138</v>
@@ -4159,13 +4059,13 @@
         <v>139</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>44</v>
@@ -4180,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>0</v>
@@ -4189,7 +4089,7 @@
         <v>40</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>82</v>
@@ -4210,7 +4110,7 @@
         <v>54788</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC23" s="13"/>
       <c r="AG23" s="2"/>
@@ -4222,10 +4122,10 @@
         <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>142</v>
@@ -4240,13 +4140,13 @@
         <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>44</v>
@@ -4261,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>0</v>
@@ -4270,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>82</v>
@@ -4291,7 +4191,7 @@
         <v>54788</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC24" s="13"/>
       <c r="AG24" s="2"/>
@@ -4303,10 +4203,10 @@
         <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>146</v>
@@ -4321,13 +4221,13 @@
         <v>147</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>44</v>
@@ -4342,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>0</v>
@@ -4351,7 +4251,7 @@
         <v>40</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>82</v>
@@ -4372,7 +4272,7 @@
         <v>54788</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC25" s="13"/>
       <c r="AG25" s="2"/>
@@ -4384,10 +4284,10 @@
         <v>149</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>150</v>
@@ -4402,13 +4302,13 @@
         <v>151</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>44</v>
@@ -4423,7 +4323,7 @@
         <v>9</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="2" t="n">
         <v>0</v>
@@ -4432,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>82</v>
@@ -4453,7 +4353,7 @@
         <v>54788</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AG26" s="2"/>
@@ -4465,10 +4365,10 @@
         <v>153</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>154</v>
@@ -4483,13 +4383,13 @@
         <v>155</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>44</v>
@@ -4504,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>0</v>
@@ -4513,7 +4413,7 @@
         <v>40</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>82</v>
@@ -4534,7 +4434,7 @@
         <v>54788</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC27" s="13"/>
       <c r="AG27" s="2"/>
@@ -4546,10 +4446,10 @@
         <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>158</v>
@@ -4564,13 +4464,13 @@
         <v>159</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>44</v>
@@ -4585,7 +4485,7 @@
         <v>9</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
@@ -4594,7 +4494,7 @@
         <v>40</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>82</v>
@@ -4615,7 +4515,7 @@
         <v>54788</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AG28" s="2"/>
@@ -4627,10 +4527,10 @@
         <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>162</v>
@@ -4645,13 +4545,13 @@
         <v>163</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>44</v>
@@ -4666,7 +4566,7 @@
         <v>9</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
@@ -4675,7 +4575,7 @@
         <v>40</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>82</v>
@@ -4696,7 +4596,7 @@
         <v>54788</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AG29" s="2"/>
@@ -4708,10 +4608,10 @@
         <v>165</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>166</v>
@@ -4726,13 +4626,13 @@
         <v>167</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>44</v>
@@ -4747,7 +4647,7 @@
         <v>9</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
@@ -4756,7 +4656,7 @@
         <v>40</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>82</v>
@@ -4777,7 +4677,7 @@
         <v>54788</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AG30" s="2"/>
@@ -4795,7 +4695,7 @@
         <v>171</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>1</v>
@@ -4807,13 +4707,13 @@
         <v>172</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>44</v>
@@ -4828,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
@@ -4837,7 +4737,7 @@
         <v>40</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>82</v>
@@ -4858,7 +4758,7 @@
         <v>54788</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC31" s="11"/>
       <c r="AG31" s="2"/>
@@ -4888,13 +4788,13 @@
         <v>176</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>44</v>
@@ -4909,7 +4809,7 @@
         <v>9</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
@@ -4918,7 +4818,7 @@
         <v>40</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>82</v>
@@ -4939,7 +4839,7 @@
         <v>54788</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC32" s="11"/>
       <c r="AG32" s="2"/>
@@ -4969,13 +4869,13 @@
         <v>179</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>44</v>
@@ -4990,7 +4890,7 @@
         <v>9</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
@@ -4999,7 +4899,7 @@
         <v>40</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>82</v>
@@ -5020,7 +4920,7 @@
         <v>54788</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="11"/>
       <c r="AG33" s="2"/>
@@ -5050,13 +4950,13 @@
         <v>182</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>44</v>
@@ -5071,7 +4971,7 @@
         <v>9</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>0</v>
@@ -5080,7 +4980,7 @@
         <v>40</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>82</v>
@@ -5101,7 +5001,7 @@
         <v>54788</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC34" s="11"/>
       <c r="AG34" s="2"/>
@@ -5131,13 +5031,13 @@
         <v>185</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>44</v>
@@ -5152,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>0</v>
@@ -5161,7 +5061,7 @@
         <v>40</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>82</v>
@@ -5182,7 +5082,7 @@
         <v>54788</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC35" s="11"/>
       <c r="AG35" s="2"/>
@@ -5212,13 +5112,13 @@
         <v>188</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>44</v>
@@ -5233,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="2" t="n">
         <v>0</v>
@@ -5242,7 +5142,7 @@
         <v>40</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>82</v>
@@ -5263,7 +5163,7 @@
         <v>54788</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC36" s="11"/>
       <c r="AG36" s="2"/>
@@ -5293,13 +5193,13 @@
         <v>191</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>44</v>
@@ -5314,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>0</v>
@@ -5323,7 +5223,7 @@
         <v>40</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>82</v>
@@ -5344,7 +5244,7 @@
         <v>54788</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC37" s="11"/>
       <c r="AG37" s="2"/>
@@ -5374,13 +5274,13 @@
         <v>194</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>44</v>
@@ -5395,7 +5295,7 @@
         <v>9</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
@@ -5404,7 +5304,7 @@
         <v>40</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>82</v>
@@ -5425,7 +5325,7 @@
         <v>54788</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC38" s="11"/>
       <c r="AG38" s="2"/>
@@ -5455,13 +5355,13 @@
         <v>197</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>44</v>
@@ -5476,7 +5376,7 @@
         <v>9</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>0</v>
@@ -5485,7 +5385,7 @@
         <v>40</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>82</v>
@@ -5506,7 +5406,7 @@
         <v>54788</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="11"/>
       <c r="AG39" s="2"/>
@@ -5536,13 +5436,13 @@
         <v>200</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>44</v>
@@ -5557,7 +5457,7 @@
         <v>9</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
@@ -5566,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>82</v>
@@ -5587,7 +5487,7 @@
         <v>54788</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC40" s="11"/>
       <c r="AG40" s="2"/>
@@ -5617,13 +5517,13 @@
         <v>203</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>44</v>
@@ -5638,7 +5538,7 @@
         <v>9</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="2" t="n">
         <v>0</v>
@@ -5647,7 +5547,7 @@
         <v>40</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>82</v>
@@ -5668,7 +5568,7 @@
         <v>54788</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC41" s="11"/>
       <c r="AG41" s="2"/>
@@ -5698,13 +5598,13 @@
         <v>206</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>44</v>
@@ -5719,7 +5619,7 @@
         <v>9</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>0</v>
@@ -5728,7 +5628,7 @@
         <v>40</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>82</v>
@@ -5749,7 +5649,7 @@
         <v>54788</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC42" s="11"/>
       <c r="AG42" s="2"/>
@@ -5779,13 +5679,13 @@
         <v>209</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>44</v>
@@ -5800,7 +5700,7 @@
         <v>9</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="2" t="n">
         <v>0</v>
@@ -5809,7 +5709,7 @@
         <v>40</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>82</v>
@@ -5830,7 +5730,7 @@
         <v>54788</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC43" s="11"/>
       <c r="AG43" s="2"/>
@@ -5860,13 +5760,13 @@
         <v>212</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>44</v>
@@ -5881,7 +5781,7 @@
         <v>9</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
@@ -5890,7 +5790,7 @@
         <v>40</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>82</v>
@@ -5911,7 +5811,7 @@
         <v>54788</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC44" s="11"/>
       <c r="AG44" s="2"/>
@@ -5941,13 +5841,13 @@
         <v>215</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>44</v>
@@ -5962,7 +5862,7 @@
         <v>9</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
@@ -5971,7 +5871,7 @@
         <v>40</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>82</v>
@@ -5992,7 +5892,7 @@
         <v>54788</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC45" s="11"/>
       <c r="AG45" s="2"/>
@@ -6022,13 +5922,13 @@
         <v>218</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>44</v>
@@ -6043,7 +5943,7 @@
         <v>9</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
@@ -6052,7 +5952,7 @@
         <v>40</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>82</v>
@@ -6073,7 +5973,7 @@
         <v>54788</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC46" s="11"/>
       <c r="AG46" s="2"/>
@@ -6103,13 +6003,13 @@
         <v>221</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>44</v>
@@ -6124,7 +6024,7 @@
         <v>9</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
@@ -6133,7 +6033,7 @@
         <v>40</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>82</v>
@@ -6154,7 +6054,7 @@
         <v>54788</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC47" s="11"/>
       <c r="AG47" s="2"/>
@@ -6184,13 +6084,13 @@
         <v>224</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>44</v>
@@ -6205,7 +6105,7 @@
         <v>9</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
@@ -6214,7 +6114,7 @@
         <v>40</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>82</v>
@@ -6235,7 +6135,7 @@
         <v>54788</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC48" s="11"/>
       <c r="AG48" s="2"/>
@@ -6265,13 +6165,13 @@
         <v>227</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>44</v>
@@ -6286,7 +6186,7 @@
         <v>9</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
@@ -6295,7 +6195,7 @@
         <v>40</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>82</v>
@@ -6316,7 +6216,7 @@
         <v>54788</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC49" s="11"/>
       <c r="AG49" s="2"/>
@@ -6346,13 +6246,13 @@
         <v>230</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>44</v>
@@ -6367,7 +6267,7 @@
         <v>9</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q50" s="2" t="n">
         <v>0</v>
@@ -6376,7 +6276,7 @@
         <v>40</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>82</v>
@@ -6397,7 +6297,7 @@
         <v>54788</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC50" s="11"/>
       <c r="AG50" s="2"/>
@@ -6427,13 +6327,13 @@
         <v>233</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>44</v>
@@ -6448,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
@@ -6457,7 +6357,7 @@
         <v>40</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>82</v>
@@ -6478,7 +6378,7 @@
         <v>54788</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC51" s="15"/>
       <c r="AG51" s="2"/>
@@ -6508,13 +6408,13 @@
         <v>236</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>44</v>
@@ -6529,7 +6429,7 @@
         <v>9</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
@@ -6538,7 +6438,7 @@
         <v>40</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>82</v>
@@ -6559,7 +6459,7 @@
         <v>54788</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC52" s="11"/>
       <c r="AG52" s="2"/>
@@ -6589,13 +6489,13 @@
         <v>240</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>44</v>
@@ -6610,7 +6510,7 @@
         <v>9</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
@@ -6619,7 +6519,7 @@
         <v>40</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>82</v>
@@ -6640,7 +6540,7 @@
         <v>54788</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC53" s="11"/>
       <c r="AG53" s="2"/>
@@ -6670,13 +6570,13 @@
         <v>244</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>44</v>
@@ -6691,7 +6591,7 @@
         <v>9</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
@@ -6700,7 +6600,7 @@
         <v>40</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>82</v>
@@ -6721,7 +6621,7 @@
         <v>54788</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC54" s="11"/>
       <c r="AG54" s="2"/>
@@ -6739,7 +6639,7 @@
         <v>248</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1</v>
@@ -6751,13 +6651,13 @@
         <v>249</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>44</v>
@@ -6772,7 +6672,7 @@
         <v>9</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
@@ -6781,7 +6681,7 @@
         <v>40</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>82</v>
@@ -6802,7 +6702,7 @@
         <v>54788</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC55" s="11"/>
       <c r="AG55" s="2"/>
@@ -6832,13 +6732,13 @@
         <v>249</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>44</v>
@@ -6853,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
@@ -6862,7 +6762,7 @@
         <v>40</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>82</v>
@@ -6883,7 +6783,7 @@
         <v>54788</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC56" s="11"/>
       <c r="AG56" s="2"/>
@@ -6913,13 +6813,13 @@
         <v>249</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>44</v>
@@ -6934,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
@@ -6943,7 +6843,7 @@
         <v>40</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>82</v>
@@ -6964,7 +6864,7 @@
         <v>54788</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC57" s="11"/>
       <c r="AG57" s="2"/>
@@ -6994,13 +6894,13 @@
         <v>249</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>44</v>
@@ -7015,7 +6915,7 @@
         <v>9</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
@@ -7024,7 +6924,7 @@
         <v>40</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>82</v>
@@ -7045,7 +6945,7 @@
         <v>54788</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC58" s="11"/>
       <c r="AG58" s="2"/>
@@ -7075,13 +6975,13 @@
         <v>249</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>44</v>
@@ -7096,7 +6996,7 @@
         <v>9</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
@@ -7105,7 +7005,7 @@
         <v>40</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>82</v>
@@ -7126,7 +7026,7 @@
         <v>54788</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC59" s="11"/>
       <c r="AG59" s="2"/>
@@ -7156,13 +7056,13 @@
         <v>249</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>44</v>
@@ -7177,7 +7077,7 @@
         <v>9</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q60" s="2" t="n">
         <v>0</v>
@@ -7186,7 +7086,7 @@
         <v>40</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>82</v>
@@ -7207,7 +7107,7 @@
         <v>54788</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC60" s="11"/>
       <c r="AG60" s="2"/>
@@ -7237,13 +7137,13 @@
         <v>263</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>44</v>
@@ -7258,7 +7158,7 @@
         <v>9</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q61" s="2" t="n">
         <v>0</v>
@@ -7267,7 +7167,7 @@
         <v>40</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>82</v>
@@ -7288,7 +7188,7 @@
         <v>54788</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC61" s="11"/>
       <c r="AG61" s="2"/>
@@ -7318,13 +7218,13 @@
         <v>266</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>44</v>
@@ -7339,7 +7239,7 @@
         <v>9</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q62" s="2" t="n">
         <v>0</v>
@@ -7348,7 +7248,7 @@
         <v>40</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>82</v>
@@ -7369,7 +7269,7 @@
         <v>54788</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC62" s="11"/>
       <c r="AG62" s="2"/>
@@ -7399,13 +7299,13 @@
         <v>269</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>44</v>
@@ -7420,7 +7320,7 @@
         <v>9</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q63" s="2" t="n">
         <v>0</v>
@@ -7429,7 +7329,7 @@
         <v>40</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>82</v>
@@ -7450,7 +7350,7 @@
         <v>54788</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC63" s="11"/>
       <c r="AG63" s="2"/>
@@ -7480,13 +7380,13 @@
         <v>272</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>44</v>
@@ -7501,7 +7401,7 @@
         <v>9</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q64" s="2" t="n">
         <v>0</v>
@@ -7510,7 +7410,7 @@
         <v>40</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>82</v>
@@ -7531,7 +7431,7 @@
         <v>54788</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC64" s="11"/>
       <c r="AG64" s="2"/>
@@ -7561,13 +7461,13 @@
         <v>275</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>44</v>
@@ -7582,7 +7482,7 @@
         <v>9</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q65" s="2" t="n">
         <v>0</v>
@@ -7591,7 +7491,7 @@
         <v>40</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>82</v>
@@ -7612,7 +7512,7 @@
         <v>54788</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC65" s="11"/>
       <c r="AG65" s="2"/>
@@ -7642,13 +7542,13 @@
         <v>278</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>44</v>
@@ -7663,7 +7563,7 @@
         <v>9</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q66" s="2" t="n">
         <v>0</v>
@@ -7672,7 +7572,7 @@
         <v>40</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>82</v>
@@ -7693,7 +7593,7 @@
         <v>54788</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC66" s="11"/>
       <c r="AG66" s="2"/>
@@ -7723,13 +7623,13 @@
         <v>281</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>44</v>
@@ -7744,7 +7644,7 @@
         <v>9</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q67" s="2" t="n">
         <v>0</v>
@@ -7753,7 +7653,7 @@
         <v>40</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>82</v>
@@ -7774,7 +7674,7 @@
         <v>54788</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC67" s="11"/>
       <c r="AG67" s="2"/>
@@ -7804,13 +7704,13 @@
         <v>284</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>44</v>
@@ -7825,7 +7725,7 @@
         <v>9</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q68" s="2" t="n">
         <v>0</v>
@@ -7834,7 +7734,7 @@
         <v>40</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>82</v>
@@ -7855,7 +7755,7 @@
         <v>54788</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC68" s="11"/>
       <c r="AG68" s="2"/>
@@ -7885,13 +7785,13 @@
         <v>287</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>44</v>
@@ -7906,7 +7806,7 @@
         <v>9</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q69" s="2" t="n">
         <v>0</v>
@@ -7915,7 +7815,7 @@
         <v>40</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>82</v>
@@ -7936,7 +7836,7 @@
         <v>54788</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC69" s="11"/>
       <c r="AG69" s="2"/>
@@ -7966,13 +7866,13 @@
         <v>290</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>44</v>
@@ -7987,7 +7887,7 @@
         <v>9</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q70" s="2" t="n">
         <v>0</v>
@@ -7996,7 +7896,7 @@
         <v>40</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>82</v>
@@ -8017,7 +7917,7 @@
         <v>54788</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC70" s="11"/>
       <c r="AG70" s="2"/>
@@ -8047,13 +7947,13 @@
         <v>293</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>44</v>
@@ -8068,7 +7968,7 @@
         <v>9</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q71" s="2" t="n">
         <v>0</v>
@@ -8077,7 +7977,7 @@
         <v>40</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>82</v>
@@ -8098,7 +7998,7 @@
         <v>54788</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC71" s="11"/>
       <c r="AG71" s="2"/>
@@ -8128,13 +8028,13 @@
         <v>296</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>44</v>
@@ -8149,7 +8049,7 @@
         <v>9</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q72" s="2" t="n">
         <v>0</v>
@@ -8158,7 +8058,7 @@
         <v>40</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>82</v>
@@ -8179,7 +8079,7 @@
         <v>54788</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC72" s="11"/>
       <c r="AG72" s="2"/>
@@ -8209,13 +8109,13 @@
         <v>299</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>44</v>
@@ -8230,7 +8130,7 @@
         <v>9</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q73" s="2" t="n">
         <v>0</v>
@@ -8239,7 +8139,7 @@
         <v>40</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>82</v>
@@ -8260,7 +8160,7 @@
         <v>54788</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC73" s="11"/>
       <c r="AG73" s="2"/>
@@ -8290,13 +8190,13 @@
         <v>302</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>44</v>
@@ -8311,7 +8211,7 @@
         <v>9</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q74" s="2" t="n">
         <v>0</v>
@@ -8320,7 +8220,7 @@
         <v>40</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>82</v>
@@ -8341,7 +8241,7 @@
         <v>54788</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC74" s="11"/>
       <c r="AG74" s="2"/>
@@ -8371,13 +8271,13 @@
         <v>305</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>44</v>
@@ -8392,7 +8292,7 @@
         <v>9</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q75" s="2" t="n">
         <v>0</v>
@@ -8401,7 +8301,7 @@
         <v>40</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>82</v>
@@ -8422,7 +8322,7 @@
         <v>54788</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC75" s="11"/>
       <c r="AG75" s="2"/>
@@ -8452,13 +8352,13 @@
         <v>308</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>44</v>
@@ -8473,7 +8373,7 @@
         <v>9</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q76" s="2" t="n">
         <v>0</v>
@@ -8482,7 +8382,7 @@
         <v>40</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>82</v>
@@ -8503,7 +8403,7 @@
         <v>54788</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC76" s="11"/>
       <c r="AG76" s="2"/>
@@ -8533,13 +8433,13 @@
         <v>311</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>44</v>
@@ -8554,7 +8454,7 @@
         <v>9</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q77" s="2" t="n">
         <v>0</v>
@@ -8563,7 +8463,7 @@
         <v>40</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>82</v>
@@ -8584,7 +8484,7 @@
         <v>54788</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC77" s="11"/>
       <c r="AG77" s="2"/>
@@ -8602,7 +8502,7 @@
         <v>315</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>1</v>
@@ -8614,13 +8514,13 @@
         <v>316</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>44</v>
@@ -8635,7 +8535,7 @@
         <v>9</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q78" s="2" t="n">
         <v>0</v>
@@ -8644,7 +8544,7 @@
         <v>40</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>82</v>
@@ -8665,7 +8565,7 @@
         <v>54788</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
@@ -8694,13 +8594,13 @@
         <v>319</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>44</v>
@@ -8715,7 +8615,7 @@
         <v>9</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q79" s="2" t="n">
         <v>0</v>
@@ -8724,7 +8624,7 @@
         <v>40</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>82</v>
@@ -8745,7 +8645,7 @@
         <v>54788</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
@@ -8774,13 +8674,13 @@
         <v>321</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>44</v>
@@ -8795,7 +8695,7 @@
         <v>9</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q80" s="2" t="n">
         <v>0</v>
@@ -8804,7 +8704,7 @@
         <v>40</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>82</v>
@@ -8825,7 +8725,7 @@
         <v>54788</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
@@ -8854,13 +8754,13 @@
         <v>323</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>44</v>
@@ -8875,7 +8775,7 @@
         <v>9</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q81" s="2" t="n">
         <v>0</v>
@@ -8884,7 +8784,7 @@
         <v>40</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>82</v>
@@ -8905,7 +8805,7 @@
         <v>54788</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
@@ -8934,13 +8834,13 @@
         <v>325</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>44</v>
@@ -8955,7 +8855,7 @@
         <v>9</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q82" s="2" t="n">
         <v>0</v>
@@ -8964,7 +8864,7 @@
         <v>40</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>82</v>
@@ -8985,7 +8885,7 @@
         <v>54788</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
@@ -9014,13 +8914,13 @@
         <v>327</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>44</v>
@@ -9035,7 +8935,7 @@
         <v>9</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q83" s="2" t="n">
         <v>0</v>
@@ -9044,7 +8944,7 @@
         <v>40</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>82</v>
@@ -9065,7 +8965,7 @@
         <v>54788</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
@@ -9094,13 +8994,13 @@
         <v>329</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>44</v>
@@ -9115,7 +9015,7 @@
         <v>9</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q84" s="2" t="n">
         <v>0</v>
@@ -9124,7 +9024,7 @@
         <v>40</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>82</v>
@@ -9145,7 +9045,7 @@
         <v>54788</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
@@ -9174,13 +9074,13 @@
         <v>331</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>44</v>
@@ -9195,7 +9095,7 @@
         <v>9</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q85" s="2" t="n">
         <v>0</v>
@@ -9204,7 +9104,7 @@
         <v>40</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>82</v>
@@ -9225,7 +9125,7 @@
         <v>54788</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
@@ -9254,13 +9154,13 @@
         <v>333</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>44</v>
@@ -9275,7 +9175,7 @@
         <v>9</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q86" s="2" t="n">
         <v>0</v>
@@ -9284,7 +9184,7 @@
         <v>40</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>82</v>
@@ -9305,7 +9205,7 @@
         <v>54788</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
@@ -9334,13 +9234,13 @@
         <v>335</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>44</v>
@@ -9355,7 +9255,7 @@
         <v>9</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q87" s="2" t="n">
         <v>0</v>
@@ -9364,7 +9264,7 @@
         <v>40</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>82</v>
@@ -9385,7 +9285,7 @@
         <v>54788</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
@@ -9414,13 +9314,13 @@
         <v>337</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>44</v>
@@ -9435,7 +9335,7 @@
         <v>9</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q88" s="2" t="n">
         <v>0</v>
@@ -9444,7 +9344,7 @@
         <v>40</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>82</v>
@@ -9465,7 +9365,7 @@
         <v>54788</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
@@ -9494,13 +9394,13 @@
         <v>339</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>44</v>
@@ -9515,7 +9415,7 @@
         <v>9</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q89" s="2" t="n">
         <v>0</v>
@@ -9524,7 +9424,7 @@
         <v>40</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>82</v>
@@ -9545,7 +9445,7 @@
         <v>54788</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
@@ -9574,13 +9474,13 @@
         <v>341</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>44</v>
@@ -9595,7 +9495,7 @@
         <v>9</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q90" s="2" t="n">
         <v>0</v>
@@ -9604,7 +9504,7 @@
         <v>40</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>82</v>
@@ -9625,7 +9525,7 @@
         <v>54788</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
@@ -9654,13 +9554,13 @@
         <v>343</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>44</v>
@@ -9675,7 +9575,7 @@
         <v>9</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q91" s="2" t="n">
         <v>0</v>
@@ -9684,7 +9584,7 @@
         <v>40</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>82</v>
@@ -9705,7 +9605,7 @@
         <v>54788</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
@@ -9734,13 +9634,13 @@
         <v>345</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>44</v>
@@ -9755,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q92" s="2" t="n">
         <v>0</v>
@@ -9764,7 +9664,7 @@
         <v>40</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>82</v>
@@ -9785,7 +9685,7 @@
         <v>54788</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
@@ -9814,13 +9714,13 @@
         <v>347</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>44</v>
@@ -9835,7 +9735,7 @@
         <v>9</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q93" s="2" t="n">
         <v>0</v>
@@ -9844,7 +9744,7 @@
         <v>40</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>82</v>
@@ -9865,7 +9765,7 @@
         <v>54788</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
@@ -9894,13 +9794,13 @@
         <v>349</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>44</v>
@@ -9915,7 +9815,7 @@
         <v>9</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q94" s="2" t="n">
         <v>0</v>
@@ -9924,7 +9824,7 @@
         <v>40</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>82</v>
@@ -9945,7 +9845,7 @@
         <v>54788</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
@@ -9974,13 +9874,13 @@
         <v>351</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>44</v>
@@ -9995,7 +9895,7 @@
         <v>9</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q95" s="2" t="n">
         <v>0</v>
@@ -10004,7 +9904,7 @@
         <v>40</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>82</v>
@@ -10025,7 +9925,7 @@
         <v>54788</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
@@ -10054,13 +9954,13 @@
         <v>353</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>44</v>
@@ -10075,7 +9975,7 @@
         <v>9</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q96" s="2" t="n">
         <v>0</v>
@@ -10084,7 +9984,7 @@
         <v>40</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>82</v>
@@ -10105,7 +10005,7 @@
         <v>54788</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
@@ -10134,13 +10034,13 @@
         <v>355</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>44</v>
@@ -10155,7 +10055,7 @@
         <v>9</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q97" s="2" t="n">
         <v>0</v>
@@ -10164,7 +10064,7 @@
         <v>40</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>82</v>
@@ -10185,7 +10085,7 @@
         <v>54788</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
@@ -10214,13 +10114,13 @@
         <v>357</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>44</v>
@@ -10235,7 +10135,7 @@
         <v>9</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q98" s="2" t="n">
         <v>0</v>
@@ -10244,7 +10144,7 @@
         <v>40</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>82</v>
@@ -10265,7 +10165,7 @@
         <v>54788</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
@@ -10294,13 +10194,13 @@
         <v>359</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>44</v>
@@ -10315,7 +10215,7 @@
         <v>9</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q99" s="2" t="n">
         <v>0</v>
@@ -10324,7 +10224,7 @@
         <v>40</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>82</v>
@@ -10345,7 +10245,7 @@
         <v>54788</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
@@ -10374,13 +10274,13 @@
         <v>361</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>44</v>
@@ -10395,7 +10295,7 @@
         <v>9</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q100" s="2" t="n">
         <v>0</v>
@@ -10404,7 +10304,7 @@
         <v>40</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>82</v>
@@ -10425,7 +10325,7 @@
         <v>54788</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
@@ -10454,13 +10354,13 @@
         <v>366</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>44</v>
@@ -10475,7 +10375,7 @@
         <v>9</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q101" s="2" t="n">
         <v>0</v>
@@ -10484,7 +10384,7 @@
         <v>40</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>82</v>
@@ -10505,7 +10405,7 @@
         <v>54788</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC101" s="13"/>
       <c r="AG101" s="2"/>
@@ -10535,13 +10435,13 @@
         <v>371</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>44</v>
@@ -10556,7 +10456,7 @@
         <v>9</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q102" s="2" t="n">
         <v>0</v>
@@ -10565,7 +10465,7 @@
         <v>40</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>82</v>
@@ -10586,7 +10486,7 @@
         <v>54788</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC102" s="13"/>
       <c r="AG102" s="2"/>
@@ -10616,13 +10516,13 @@
         <v>375</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>44</v>
@@ -10637,7 +10537,7 @@
         <v>9</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q103" s="2" t="n">
         <v>0</v>
@@ -10646,7 +10546,7 @@
         <v>40</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>82</v>
@@ -10667,7 +10567,7 @@
         <v>54788</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC103" s="13"/>
       <c r="AG103" s="2"/>
@@ -10697,13 +10597,13 @@
         <v>379</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>44</v>
@@ -10718,7 +10618,7 @@
         <v>9</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q104" s="2" t="n">
         <v>0</v>
@@ -10727,7 +10627,7 @@
         <v>40</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V104" s="2" t="s">
         <v>82</v>
@@ -10748,7 +10648,7 @@
         <v>54788</v>
       </c>
       <c r="AB104" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC104" s="13"/>
       <c r="AG104" s="2"/>
@@ -10778,13 +10678,13 @@
         <v>383</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>44</v>
@@ -10799,7 +10699,7 @@
         <v>9</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q105" s="2" t="n">
         <v>0</v>
@@ -10808,7 +10708,7 @@
         <v>40</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V105" s="2" t="s">
         <v>82</v>
@@ -10829,7 +10729,7 @@
         <v>54788</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC105" s="13"/>
       <c r="AG105" s="2"/>
@@ -10859,13 +10759,13 @@
         <v>387</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>44</v>
@@ -10880,7 +10780,7 @@
         <v>9</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q106" s="2" t="n">
         <v>0</v>
@@ -10889,7 +10789,7 @@
         <v>40</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V106" s="2" t="s">
         <v>82</v>
@@ -10910,7 +10810,7 @@
         <v>54788</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC106" s="13"/>
       <c r="AG106" s="2"/>
@@ -10940,13 +10840,13 @@
         <v>391</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>44</v>
@@ -10961,7 +10861,7 @@
         <v>9</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q107" s="2" t="n">
         <v>0</v>
@@ -10970,7 +10870,7 @@
         <v>40</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V107" s="2" t="s">
         <v>82</v>
@@ -10991,7 +10891,7 @@
         <v>54788</v>
       </c>
       <c r="AB107" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC107" s="13"/>
       <c r="AG107" s="2"/>
@@ -11021,13 +10921,13 @@
         <v>395</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>44</v>
@@ -11042,7 +10942,7 @@
         <v>9</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q108" s="2" t="n">
         <v>0</v>
@@ -11051,7 +10951,7 @@
         <v>40</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>82</v>
@@ -11072,7 +10972,7 @@
         <v>54788</v>
       </c>
       <c r="AB108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC108" s="13"/>
       <c r="AG108" s="2"/>
@@ -11102,13 +11002,13 @@
         <v>399</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>44</v>
@@ -11123,7 +11023,7 @@
         <v>9</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q109" s="2" t="n">
         <v>0</v>
@@ -11132,7 +11032,7 @@
         <v>40</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V109" s="2" t="s">
         <v>82</v>
@@ -11153,7 +11053,7 @@
         <v>54788</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC109" s="13"/>
       <c r="AG109" s="2"/>
@@ -11183,13 +11083,13 @@
         <v>403</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>44</v>
@@ -11204,7 +11104,7 @@
         <v>9</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q110" s="2" t="n">
         <v>0</v>
@@ -11213,7 +11113,7 @@
         <v>40</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V110" s="2" t="s">
         <v>82</v>
@@ -11234,7 +11134,7 @@
         <v>54788</v>
       </c>
       <c r="AB110" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC110" s="13"/>
       <c r="AG110" s="2"/>
@@ -11264,13 +11164,13 @@
         <v>407</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>44</v>
@@ -11285,7 +11185,7 @@
         <v>9</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q111" s="2" t="n">
         <v>0</v>
@@ -11294,7 +11194,7 @@
         <v>40</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V111" s="2" t="s">
         <v>82</v>
@@ -11315,7 +11215,7 @@
         <v>54788</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC111" s="13"/>
       <c r="AG111" s="2"/>
@@ -11345,13 +11245,13 @@
         <v>411</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>44</v>
@@ -11366,7 +11266,7 @@
         <v>9</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q112" s="2" t="n">
         <v>0</v>
@@ -11375,7 +11275,7 @@
         <v>40</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V112" s="2" t="s">
         <v>82</v>
@@ -11396,7 +11296,7 @@
         <v>54788</v>
       </c>
       <c r="AB112" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC112" s="13"/>
       <c r="AG112" s="2"/>
@@ -11426,13 +11326,13 @@
         <v>415</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>44</v>
@@ -11447,7 +11347,7 @@
         <v>9</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q113" s="2" t="n">
         <v>0</v>
@@ -11456,7 +11356,7 @@
         <v>40</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V113" s="2" t="s">
         <v>82</v>
@@ -11477,7 +11377,7 @@
         <v>54788</v>
       </c>
       <c r="AB113" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC113" s="13"/>
       <c r="AG113" s="2"/>
@@ -11507,13 +11407,13 @@
         <v>419</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>44</v>
@@ -11528,7 +11428,7 @@
         <v>9</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q114" s="2" t="n">
         <v>0</v>
@@ -11537,7 +11437,7 @@
         <v>40</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V114" s="2" t="s">
         <v>82</v>
@@ -11558,7 +11458,7 @@
         <v>54788</v>
       </c>
       <c r="AB114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC114" s="13"/>
       <c r="AG114" s="2"/>
@@ -11588,13 +11488,13 @@
         <v>423</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>44</v>
@@ -11609,7 +11509,7 @@
         <v>9</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q115" s="2" t="n">
         <v>0</v>
@@ -11618,7 +11518,7 @@
         <v>40</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V115" s="2" t="s">
         <v>82</v>
@@ -11639,7 +11539,7 @@
         <v>54788</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC115" s="13"/>
       <c r="AG115" s="2"/>
@@ -11669,13 +11569,13 @@
         <v>427</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>44</v>
@@ -11690,7 +11590,7 @@
         <v>9</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q116" s="2" t="n">
         <v>0</v>
@@ -11699,7 +11599,7 @@
         <v>40</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V116" s="2" t="s">
         <v>82</v>
@@ -11720,7 +11620,7 @@
         <v>54788</v>
       </c>
       <c r="AB116" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC116" s="13"/>
       <c r="AG116" s="2"/>
@@ -11750,13 +11650,13 @@
         <v>431</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>44</v>
@@ -11771,7 +11671,7 @@
         <v>9</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q117" s="2" t="n">
         <v>0</v>
@@ -11780,7 +11680,7 @@
         <v>40</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V117" s="2" t="s">
         <v>82</v>
@@ -11801,7 +11701,7 @@
         <v>54788</v>
       </c>
       <c r="AB117" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC117" s="13"/>
       <c r="AG117" s="2"/>
@@ -11831,13 +11731,13 @@
         <v>435</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>44</v>
@@ -11852,7 +11752,7 @@
         <v>9</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q118" s="2" t="n">
         <v>0</v>
@@ -11861,7 +11761,7 @@
         <v>40</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>82</v>
@@ -11882,7 +11782,7 @@
         <v>54788</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC118" s="13"/>
       <c r="AG118" s="2"/>
@@ -11912,13 +11812,13 @@
         <v>439</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>44</v>
@@ -11933,7 +11833,7 @@
         <v>9</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q119" s="2" t="n">
         <v>0</v>
@@ -11942,7 +11842,7 @@
         <v>40</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>82</v>
@@ -11963,7 +11863,7 @@
         <v>54788</v>
       </c>
       <c r="AB119" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC119" s="13"/>
       <c r="AG119" s="2"/>
@@ -11993,13 +11893,13 @@
         <v>443</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>44</v>
@@ -12014,7 +11914,7 @@
         <v>9</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q120" s="2" t="n">
         <v>0</v>
@@ -12023,7 +11923,7 @@
         <v>40</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>82</v>
@@ -12044,7 +11944,7 @@
         <v>54788</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC120" s="13"/>
       <c r="AG120" s="2"/>
@@ -12074,13 +11974,13 @@
         <v>447</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>44</v>
@@ -12095,7 +11995,7 @@
         <v>9</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q121" s="2" t="n">
         <v>0</v>
@@ -12104,7 +12004,7 @@
         <v>40</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>82</v>
@@ -12125,7 +12025,7 @@
         <v>54788</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC121" s="13"/>
       <c r="AG121" s="2"/>
@@ -12155,13 +12055,13 @@
         <v>451</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>44</v>
@@ -12176,7 +12076,7 @@
         <v>9</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q122" s="2" t="n">
         <v>0</v>
@@ -12185,7 +12085,7 @@
         <v>40</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V122" s="2" t="s">
         <v>82</v>
@@ -12206,7 +12106,7 @@
         <v>54788</v>
       </c>
       <c r="AB122" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC122" s="13"/>
       <c r="AG122" s="2"/>
@@ -12236,13 +12136,13 @@
         <v>455</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>44</v>
@@ -12257,7 +12157,7 @@
         <v>9</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q123" s="2" t="n">
         <v>0</v>
@@ -12266,7 +12166,7 @@
         <v>40</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V123" s="2" t="s">
         <v>82</v>
@@ -12287,7 +12187,7 @@
         <v>54788</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC123" s="13"/>
       <c r="AG123" s="2"/>
@@ -12310,10 +12210,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12355,7 +12255,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>465</v>
       </c>
@@ -12381,526 +12281,26 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D13" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -12919,8 +12319,8 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12935,170 +12335,173 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>514</v>
+      <c r="A2" s="20" t="s">
+        <v>474</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>536</v>
+        <v>495</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
